--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-FR453231.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-FR453231.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0F5BB7-A8D8-4015-88D9-FE4166BA5557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A7746C-164B-462F-8DF4-90F04BD06696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{972A11B6-A8A9-4235-88AF-9F21716C0B48}"/>
   </bookViews>
@@ -25,33 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Waste management services</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Concierge Services</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
   <si>
     <t>IT Support</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Waste management services</t>
-  </si>
-  <si>
-    <t>RON</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Beverages and Catering</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>Concierge Services</t>
-  </si>
-  <si>
-    <t>Various paper supplies</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A036DBB-5D9B-49D8-9982-829AE7EAF303}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,208 +409,254 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>149513</v>
+        <v>139410</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="D1">
-        <v>106212</v>
+        <v>71514</v>
       </c>
       <c r="E1">
-        <v>21242.400000000001</v>
+        <v>14302.8</v>
       </c>
       <c r="F1">
-        <v>127454</v>
+        <v>85816.8</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>821314</v>
+        <v>159552</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>42789</v>
+        <v>42767</v>
       </c>
       <c r="D2">
-        <v>122474</v>
+        <v>137059</v>
       </c>
       <c r="E2">
-        <v>24494.799999999999</v>
+        <v>27411.8</v>
       </c>
       <c r="F2">
-        <v>146969</v>
+        <v>164471</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>483324</v>
+        <v>478775</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>42785</v>
+        <v>42776</v>
       </c>
       <c r="D3">
-        <v>214155</v>
+        <v>188410</v>
       </c>
       <c r="E3">
-        <v>42831</v>
+        <v>37682</v>
       </c>
       <c r="F3">
-        <v>256986</v>
+        <v>226092</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>223192</v>
+        <v>530047</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>42818</v>
+        <v>42804</v>
       </c>
       <c r="D4">
-        <v>21166</v>
+        <v>8227</v>
       </c>
       <c r="E4">
-        <v>4233.2</v>
+        <v>1645.4</v>
       </c>
       <c r="F4">
-        <v>25399.200000000001</v>
+        <v>9872.4</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>893687</v>
+        <v>160340</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>42911</v>
+        <v>42905</v>
       </c>
       <c r="D5">
-        <v>226116</v>
+        <v>62875</v>
       </c>
       <c r="E5">
-        <v>45223.199999999997</v>
+        <v>12575</v>
       </c>
       <c r="F5">
-        <v>271339</v>
+        <v>75450</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>610920</v>
+        <v>264149</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>42917</v>
+        <v>42949</v>
       </c>
       <c r="D6">
-        <v>200171</v>
+        <v>235510</v>
       </c>
       <c r="E6">
-        <v>40034.199999999997</v>
+        <v>47102</v>
       </c>
       <c r="F6">
-        <v>240205</v>
+        <v>282612</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>867648</v>
+        <v>254818</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>42987</v>
+        <v>42958</v>
       </c>
       <c r="D7">
-        <v>116552</v>
+        <v>151435</v>
       </c>
       <c r="E7">
-        <v>23310.400000000001</v>
+        <v>30287</v>
       </c>
       <c r="F7">
-        <v>139862</v>
+        <v>181722</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>742445</v>
+        <v>638904</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>43030</v>
+        <v>43006</v>
       </c>
       <c r="D8">
-        <v>291550</v>
+        <v>288195</v>
       </c>
       <c r="E8">
-        <v>58310</v>
+        <v>57639</v>
       </c>
       <c r="F8">
-        <v>349860</v>
+        <v>345834</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>978853</v>
+        <v>208232</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>43089</v>
+        <v>43093</v>
       </c>
       <c r="D9">
-        <v>39587</v>
+        <v>127086</v>
       </c>
       <c r="E9">
-        <v>7917.4</v>
+        <v>25417.200000000001</v>
       </c>
       <c r="F9">
-        <v>47504.4</v>
+        <v>152503</v>
       </c>
       <c r="G9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>296611</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43076</v>
+      </c>
+      <c r="D10">
+        <v>171072</v>
+      </c>
+      <c r="E10">
+        <v>34214.400000000001</v>
+      </c>
+      <c r="F10">
+        <v>205286</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>582016</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43086</v>
+      </c>
+      <c r="D11">
+        <v>122174</v>
+      </c>
+      <c r="E11">
+        <v>24434.799999999999</v>
+      </c>
+      <c r="F11">
+        <v>146609</v>
+      </c>
+      <c r="G11" t="s">
         <v>3</v>
       </c>
     </row>
